--- a/biology/Botanique/Agave_avellanidens/Agave_avellanidens.xlsx
+++ b/biology/Botanique/Agave_avellanidens/Agave_avellanidens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agave avellanidens est une espèce de plante de la famille des Asparagaceae (sous-famille des Agavoideae) et du genre des Agaves.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente à croissance lente, Agave avellanidens se présente sous la forme d'une rosette relativement ouverte de 1,5 m de diamètre, avec des feuilles vert-gris à vert, charnues et légèrement lancéolées, munies d'une rangée d'épines, rougeâtres (jeunes) à noirâtres (plus âgées) sur leurs marges cornées et se finissant par une épine terminale de 3 à 4 cm. Elles mesurent jusqu'à environ 120 cm de longueur. De manière occasionnelle, la plante produit une remarquable hampe florale multi-branchée pouvant mesurer jusqu'à 3 à 4 mètres de hauteur avec des fleurs jaunes[2].
-L'espèce est récoltée pour la première fois en 1899 en Basse-Californie au Mexique mais a été décrite comme espèce à part entière en 1911 par le botaniste américain William Trelease[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente à croissance lente, Agave avellanidens se présente sous la forme d'une rosette relativement ouverte de 1,5 m de diamètre, avec des feuilles vert-gris à vert, charnues et légèrement lancéolées, munies d'une rangée d'épines, rougeâtres (jeunes) à noirâtres (plus âgées) sur leurs marges cornées et se finissant par une épine terminale de 3 à 4 cm. Elles mesurent jusqu'à environ 120 cm de longueur. De manière occasionnelle, la plante produit une remarquable hampe florale multi-branchée pouvant mesurer jusqu'à 3 à 4 mètres de hauteur avec des fleurs jaunes.
+L'espèce est récoltée pour la première fois en 1899 en Basse-Californie au Mexique mais a été décrite comme espèce à part entière en 1911 par le botaniste américain William Trelease.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire des zones arides du nord-ouest du Mexique principalement dans l'État de Basse-Californie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire des zones arides du nord-ouest du Mexique principalement dans l'État de Basse-Californie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce ne présente pas de synonyme[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce ne présente pas de synonyme.
 </t>
         </is>
       </c>
